--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H2">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I2">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J2">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.73377055096969</v>
+        <v>129.8307836666667</v>
       </c>
       <c r="N2">
-        <v>91.73377055096969</v>
+        <v>389.492351</v>
       </c>
       <c r="O2">
-        <v>0.34918000209976</v>
+        <v>0.4232533182703919</v>
       </c>
       <c r="P2">
-        <v>0.34918000209976</v>
+        <v>0.4232533182703919</v>
       </c>
       <c r="Q2">
-        <v>97.7304969535685</v>
+        <v>148.2138272645252</v>
       </c>
       <c r="R2">
-        <v>97.7304969535685</v>
+        <v>1333.924445380727</v>
       </c>
       <c r="S2">
-        <v>0.1996715808036931</v>
+        <v>0.242117573791393</v>
       </c>
       <c r="T2">
-        <v>0.1996715808036931</v>
+        <v>0.242117573791393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H3">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I3">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J3">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.974291663184</v>
+        <v>118.3062056666667</v>
       </c>
       <c r="N3">
-        <v>117.974291663184</v>
+        <v>354.918617</v>
       </c>
       <c r="O3">
-        <v>0.4490632311661023</v>
+        <v>0.3856827533981234</v>
       </c>
       <c r="P3">
-        <v>0.4490632311661023</v>
+        <v>0.3856827533981234</v>
       </c>
       <c r="Q3">
-        <v>125.6863866244548</v>
+        <v>135.0574573748232</v>
       </c>
       <c r="R3">
-        <v>125.6863866244548</v>
+        <v>1215.517116373409</v>
       </c>
       <c r="S3">
-        <v>0.2567878020177478</v>
+        <v>0.2206257304432575</v>
       </c>
       <c r="T3">
-        <v>0.2567878020177478</v>
+        <v>0.2206257304432575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H4">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I4">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J4">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.0039201426181</v>
+        <v>58.60787966666667</v>
       </c>
       <c r="N4">
-        <v>53.0039201426181</v>
+        <v>175.823639</v>
       </c>
       <c r="O4">
-        <v>0.2017567667341377</v>
+        <v>0.1910639283314847</v>
       </c>
       <c r="P4">
-        <v>0.2017567667341377</v>
+        <v>0.1910639283314848</v>
       </c>
       <c r="Q4">
-        <v>56.4688383014533</v>
+        <v>66.90630610038923</v>
       </c>
       <c r="R4">
-        <v>56.4688383014533</v>
+        <v>602.156754903503</v>
       </c>
       <c r="S4">
-        <v>0.1153705604828362</v>
+        <v>0.1092960947257569</v>
       </c>
       <c r="T4">
-        <v>0.1153705604828362</v>
+        <v>0.1092960947257569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H5">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I5">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J5">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.73377055096969</v>
+        <v>129.8307836666667</v>
       </c>
       <c r="N5">
-        <v>91.73377055096969</v>
+        <v>389.492351</v>
       </c>
       <c r="O5">
-        <v>0.34918000209976</v>
+        <v>0.4232533182703919</v>
       </c>
       <c r="P5">
-        <v>0.34918000209976</v>
+        <v>0.4232533182703919</v>
       </c>
       <c r="Q5">
-        <v>73.17782657499673</v>
+        <v>110.883408929137</v>
       </c>
       <c r="R5">
-        <v>73.17782657499673</v>
+        <v>997.950680362233</v>
       </c>
       <c r="S5">
-        <v>0.1495084212960669</v>
+        <v>0.181135744478999</v>
       </c>
       <c r="T5">
-        <v>0.1495084212960669</v>
+        <v>0.181135744478999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H6">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I6">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J6">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>117.974291663184</v>
+        <v>118.3062056666667</v>
       </c>
       <c r="N6">
-        <v>117.974291663184</v>
+        <v>354.918617</v>
       </c>
       <c r="O6">
-        <v>0.4490632311661023</v>
+        <v>0.3856827533981234</v>
       </c>
       <c r="P6">
-        <v>0.4490632311661023</v>
+        <v>0.3856827533981234</v>
       </c>
       <c r="Q6">
-        <v>94.11040453024638</v>
+        <v>101.040716317879</v>
       </c>
       <c r="R6">
-        <v>94.11040453024638</v>
+        <v>909.366446860911</v>
       </c>
       <c r="S6">
-        <v>0.1922754291483545</v>
+        <v>0.1650570229548659</v>
       </c>
       <c r="T6">
-        <v>0.1922754291483545</v>
+        <v>0.1650570229548659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H7">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I7">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J7">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.0039201426181</v>
+        <v>58.60787966666667</v>
       </c>
       <c r="N7">
-        <v>53.0039201426181</v>
+        <v>175.823639</v>
       </c>
       <c r="O7">
-        <v>0.2017567667341377</v>
+        <v>0.1910639283314847</v>
       </c>
       <c r="P7">
-        <v>0.2017567667341377</v>
+        <v>0.1910639283314848</v>
       </c>
       <c r="Q7">
-        <v>42.28226587324642</v>
+        <v>50.05470431599301</v>
       </c>
       <c r="R7">
-        <v>42.28226587324642</v>
+        <v>450.492338843937</v>
       </c>
       <c r="S7">
-        <v>0.08638620625130146</v>
+        <v>0.08176783360572788</v>
       </c>
       <c r="T7">
-        <v>0.08638620625130146</v>
+        <v>0.0817678336057279</v>
       </c>
     </row>
   </sheetData>
